--- a/data/Soziodemografische_Daten_und_Einflussfaktoren.xlsx
+++ b/data/Soziodemografische_Daten_und_Einflussfaktoren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linafricke/Documents/Promotion/Summer School Padova/quarto_summerschool/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB56E276-A429-7444-AA3F-2612952FC304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FCC575-5066-5B44-91CB-127F6B46541F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="29400" windowHeight="19120" xr2:uid="{8F33862A-58BF-B848-B983-2881A67C4019}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="180">
   <si>
     <t>VP</t>
   </si>
@@ -537,13 +537,49 @@
     <t>sm_min</t>
   </si>
   <si>
-    <t>geschlecht_id</t>
-  </si>
-  <si>
     <t>grösse</t>
   </si>
   <si>
     <t>gewicht</t>
+  </si>
+  <si>
+    <t>sleep_general</t>
+  </si>
+  <si>
+    <t>sleep_d01</t>
+  </si>
+  <si>
+    <t>sleep_d02</t>
+  </si>
+  <si>
+    <t>pc_years</t>
+  </si>
+  <si>
+    <t>pc_h</t>
+  </si>
+  <si>
+    <t>music_years</t>
+  </si>
+  <si>
+    <t>sport_1_woche</t>
+  </si>
+  <si>
+    <t>sport_2_woche</t>
+  </si>
+  <si>
+    <t>sport_3_woche</t>
+  </si>
+  <si>
+    <t>sport_sum_week</t>
+  </si>
+  <si>
+    <t>sm_d01</t>
+  </si>
+  <si>
+    <t>sm_d02</t>
+  </si>
+  <si>
+    <t>sm_group</t>
   </si>
 </sst>
 </file>
@@ -2120,10 +2156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CD11FD-550A-A443-9C7D-4F4044332331}">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2137,7 +2173,7 @@
     <col min="15" max="15" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>159</v>
       </c>
@@ -2150,14 +2186,14 @@
       <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>86</v>
@@ -2183,8 +2219,44 @@
       <c r="O1" s="40" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="U1" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="V1" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="W1" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="X1" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y1" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z1" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA1" s="32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -2232,8 +2304,45 @@
       <c r="O2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2">
+        <v>7</v>
+      </c>
+      <c r="R2">
+        <v>8</v>
+      </c>
+      <c r="S2">
+        <v>13</v>
+      </c>
+      <c r="T2">
+        <v>7</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>SUM(V2:X2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>10</v>
+      </c>
+      <c r="AA2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -2280,8 +2389,45 @@
       <c r="O3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3">
+        <v>7.5</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="R3">
+        <v>7</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>6</v>
+      </c>
+      <c r="W3">
+        <v>1.5</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y41" si="1">SUM(V3:X3)</f>
+        <v>10.5</v>
+      </c>
+      <c r="Z3">
+        <v>20</v>
+      </c>
+      <c r="AA3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -2323,14 +2469,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N41" si="1">L4+M4</f>
+        <f t="shared" ref="N4:N41" si="2">L4+M4</f>
         <v>16</v>
       </c>
       <c r="O4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4">
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -2344,7 +2527,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="9">
         <v>164</v>
@@ -2372,14 +2555,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.5</v>
       </c>
       <c r="O5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5">
+        <v>7.5</v>
+      </c>
+      <c r="Q5">
+        <v>9</v>
+      </c>
+      <c r="R5">
+        <v>7</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>3.5</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -2393,7 +2613,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="9">
         <v>160</v>
@@ -2421,14 +2641,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="O6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <v>8</v>
+      </c>
+      <c r="Q6">
+        <v>8</v>
+      </c>
+      <c r="R6">
+        <v>8</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>3.5</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="Z6">
+        <v>6</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -2470,14 +2727,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7">
+        <v>7.5</v>
+      </c>
+      <c r="Q7">
+        <v>7</v>
+      </c>
+      <c r="R7">
+        <v>7.5</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>10</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
@@ -2491,7 +2785,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="9">
         <v>165</v>
@@ -2519,14 +2813,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="O8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <v>7.5</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Z8">
+        <v>20</v>
+      </c>
+      <c r="AA8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -2568,14 +2899,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>30</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -2623,8 +2991,45 @@
       <c r="O10">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10">
+        <v>7.8</v>
+      </c>
+      <c r="Q10">
+        <v>7.5</v>
+      </c>
+      <c r="R10">
+        <v>7.5</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Z10">
+        <v>34</v>
+      </c>
+      <c r="AA10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -2671,8 +3076,45 @@
       <c r="O11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+      <c r="R11">
+        <v>6</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -2686,7 +3128,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="9">
         <v>165</v>
@@ -2714,14 +3156,51 @@
         <v>3</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="O12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12">
+        <v>8</v>
+      </c>
+      <c r="Q12">
+        <v>7</v>
+      </c>
+      <c r="R12">
+        <v>8</v>
+      </c>
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>15</v>
+      </c>
+      <c r="V12">
+        <v>1.5</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
@@ -2763,14 +3242,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="O13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13">
+        <v>7.5</v>
+      </c>
+      <c r="Q13">
+        <v>7</v>
+      </c>
+      <c r="R13">
+        <v>7</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>8</v>
+      </c>
+      <c r="V13">
+        <v>7</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Z13">
+        <v>10</v>
+      </c>
+      <c r="AA13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
@@ -2784,7 +3300,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="9">
         <v>163</v>
@@ -2812,14 +3328,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="O14">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14">
+        <v>8</v>
+      </c>
+      <c r="Q14">
+        <v>7</v>
+      </c>
+      <c r="R14">
+        <v>7</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>9</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>0.5</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -2861,14 +3414,51 @@
         <v>0</v>
       </c>
       <c r="N15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>8</v>
+      </c>
+      <c r="P15">
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15">
+        <v>8</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>13</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
@@ -2910,14 +3500,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="O16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <v>8</v>
+      </c>
+      <c r="Q16">
+        <v>5.5</v>
+      </c>
+      <c r="R16">
+        <v>7.5</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
@@ -2931,7 +3558,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="9">
         <v>157</v>
@@ -2959,14 +3586,51 @@
         <v>0</v>
       </c>
       <c r="N17">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>9</v>
+      </c>
+      <c r="Q17">
+        <v>9</v>
+      </c>
+      <c r="R17">
+        <v>10.5</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>10</v>
+      </c>
+      <c r="V17">
+        <v>6</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="O17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="Z17">
+        <v>5</v>
+      </c>
+      <c r="AA17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
@@ -3008,14 +3672,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="O18">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <v>8.25</v>
+      </c>
+      <c r="Q18">
+        <v>7.5</v>
+      </c>
+      <c r="R18">
+        <v>7</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -3057,14 +3758,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O19">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <v>8</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+      <c r="R19">
+        <v>7.5</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>42</v>
       </c>
@@ -3078,7 +3816,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="9">
         <v>175</v>
@@ -3106,14 +3844,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O20">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <v>8</v>
+      </c>
+      <c r="Q20">
+        <v>8</v>
+      </c>
+      <c r="R20">
+        <v>7</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
@@ -3127,7 +3902,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="9">
         <v>171</v>
@@ -3155,14 +3930,51 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="O21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21">
+        <v>8</v>
+      </c>
+      <c r="Q21">
+        <v>8.5</v>
+      </c>
+      <c r="R21">
+        <v>8</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>7</v>
+      </c>
+      <c r="V21">
+        <v>1.5</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>50</v>
       </c>
@@ -3204,14 +4016,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="O22">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22">
+        <v>8</v>
+      </c>
+      <c r="Q22">
+        <v>8</v>
+      </c>
+      <c r="R22">
+        <v>8.5</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <v>4.5</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="Z22">
+        <v>60</v>
+      </c>
+      <c r="AA22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
@@ -3225,7 +4074,7 @@
         <v>9</v>
       </c>
       <c r="E23" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="9">
         <v>172</v>
@@ -3253,14 +4102,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="O23">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23">
+        <v>8</v>
+      </c>
+      <c r="Q23">
+        <v>8.5</v>
+      </c>
+      <c r="R23">
+        <v>8.5</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>3</v>
+      </c>
+      <c r="W23">
+        <v>2</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -3274,7 +4160,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="9">
         <v>175</v>
@@ -3302,14 +4188,51 @@
         <v>3</v>
       </c>
       <c r="N24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="O24">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24">
+        <v>8.5</v>
+      </c>
+      <c r="Q24">
+        <v>8</v>
+      </c>
+      <c r="R24">
+        <v>8</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>5</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>4</v>
+      </c>
+      <c r="X24">
+        <v>3</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Z24">
+        <v>15</v>
+      </c>
+      <c r="AA24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>56</v>
       </c>
@@ -3323,7 +4246,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="9">
         <v>158</v>
@@ -3351,14 +4274,51 @@
         <v>0</v>
       </c>
       <c r="N25">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="O25">
+        <v>7</v>
+      </c>
+      <c r="P25">
+        <v>8</v>
+      </c>
+      <c r="Q25">
+        <v>8</v>
+      </c>
+      <c r="R25">
+        <v>7.5</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>22</v>
+      </c>
+      <c r="V25">
+        <v>4</v>
+      </c>
+      <c r="W25">
+        <v>2</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="O25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>58</v>
       </c>
@@ -3405,8 +4365,45 @@
       <c r="O26">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26">
+        <v>8</v>
+      </c>
+      <c r="Q26">
+        <v>8</v>
+      </c>
+      <c r="R26">
+        <v>7</v>
+      </c>
+      <c r="S26">
+        <v>10</v>
+      </c>
+      <c r="T26">
+        <v>2.5</v>
+      </c>
+      <c r="U26">
+        <v>5</v>
+      </c>
+      <c r="V26">
+        <v>2.5</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -3448,14 +4445,51 @@
         <v>4</v>
       </c>
       <c r="N27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="O27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27">
+        <v>7.5</v>
+      </c>
+      <c r="Q27">
+        <v>7.5</v>
+      </c>
+      <c r="R27">
+        <v>8</v>
+      </c>
+      <c r="S27">
+        <v>20</v>
+      </c>
+      <c r="T27">
+        <v>7</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>4</v>
+      </c>
+      <c r="W27">
+        <v>1.5</v>
+      </c>
+      <c r="X27">
+        <v>7</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="Z27">
+        <v>17</v>
+      </c>
+      <c r="AA27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>60</v>
       </c>
@@ -3469,7 +4503,7 @@
         <v>9</v>
       </c>
       <c r="E28" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="9">
         <v>180</v>
@@ -3497,14 +4531,51 @@
         <v>0</v>
       </c>
       <c r="N28">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <v>8</v>
+      </c>
+      <c r="Q28">
+        <v>7.5</v>
+      </c>
+      <c r="R28">
+        <v>6.5</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="O28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>62</v>
       </c>
@@ -3518,7 +4589,7 @@
         <v>9</v>
       </c>
       <c r="E29" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="9">
         <v>193</v>
@@ -3546,14 +4617,51 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="O29">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29">
+        <v>7.75</v>
+      </c>
+      <c r="Q29">
+        <v>8</v>
+      </c>
+      <c r="R29">
+        <v>8</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Z29">
+        <v>10</v>
+      </c>
+      <c r="AA29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>64</v>
       </c>
@@ -3567,7 +4675,7 @@
         <v>8</v>
       </c>
       <c r="E30" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="9">
         <v>165</v>
@@ -3595,14 +4703,51 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="O30">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30">
+        <v>8</v>
+      </c>
+      <c r="Q30">
+        <v>8</v>
+      </c>
+      <c r="R30">
+        <v>8</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Z30">
+        <v>5</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
@@ -3616,7 +4761,7 @@
         <v>9</v>
       </c>
       <c r="E31" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="9">
         <v>178</v>
@@ -3644,14 +4789,51 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="O31">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31">
+        <v>7.5</v>
+      </c>
+      <c r="Q31">
+        <v>5.5</v>
+      </c>
+      <c r="R31">
+        <v>8</v>
+      </c>
+      <c r="S31">
+        <v>21</v>
+      </c>
+      <c r="T31">
+        <v>14</v>
+      </c>
+      <c r="U31">
+        <v>8</v>
+      </c>
+      <c r="V31">
+        <v>1.5</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>68</v>
       </c>
@@ -3665,7 +4847,7 @@
         <v>9</v>
       </c>
       <c r="E32" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="9">
         <v>179</v>
@@ -3693,14 +4875,51 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O32">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32">
+        <v>8</v>
+      </c>
+      <c r="Q32">
+        <v>7</v>
+      </c>
+      <c r="R32">
+        <v>9</v>
+      </c>
+      <c r="S32">
+        <v>6</v>
+      </c>
+      <c r="T32">
+        <v>21</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>4.5</v>
+      </c>
+      <c r="W32">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>70</v>
       </c>
@@ -3747,8 +4966,45 @@
       <c r="O33">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <v>8</v>
+      </c>
+      <c r="Q33">
+        <v>7.5</v>
+      </c>
+      <c r="R33">
+        <v>6.5</v>
+      </c>
+      <c r="S33">
+        <v>13</v>
+      </c>
+      <c r="T33">
+        <v>3.5</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>4</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>78</v>
       </c>
@@ -3762,7 +5018,7 @@
         <v>9</v>
       </c>
       <c r="E34" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="44">
         <v>186</v>
@@ -3790,14 +5046,51 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="O34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <v>7</v>
+      </c>
+      <c r="Q34">
+        <v>7.5</v>
+      </c>
+      <c r="R34">
+        <v>8</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>2.5</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>74</v>
       </c>
@@ -3811,7 +5104,7 @@
         <v>9</v>
       </c>
       <c r="E35" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="9">
         <v>183</v>
@@ -3839,14 +5132,51 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="O35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35">
+        <v>6.5</v>
+      </c>
+      <c r="Q35">
+        <v>7</v>
+      </c>
+      <c r="R35">
+        <v>6.5</v>
+      </c>
+      <c r="S35">
+        <v>20</v>
+      </c>
+      <c r="T35">
+        <v>15</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>3.5</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="Z35">
+        <v>4</v>
+      </c>
+      <c r="AA35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>72</v>
       </c>
@@ -3859,8 +5189,8 @@
       <c r="D36" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="8">
-        <v>2</v>
+      <c r="E36" s="5">
+        <v>1</v>
       </c>
       <c r="F36" s="43">
         <v>170</v>
@@ -3888,14 +5218,51 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="O36">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36">
+        <v>7</v>
+      </c>
+      <c r="Q36">
+        <v>5</v>
+      </c>
+      <c r="R36">
+        <v>8</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>1.5</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="Z36">
+        <v>23</v>
+      </c>
+      <c r="AA36">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>76</v>
       </c>
@@ -3937,14 +5304,51 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O37">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37">
+        <v>8</v>
+      </c>
+      <c r="Q37">
+        <v>7.5</v>
+      </c>
+      <c r="R37">
+        <v>8</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>3</v>
+      </c>
+      <c r="W37">
+        <v>2</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>83</v>
       </c>
@@ -3958,7 +5362,7 @@
         <v>9</v>
       </c>
       <c r="E38" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" s="9">
         <v>187</v>
@@ -3986,14 +5390,51 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O38">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38">
+        <v>7</v>
+      </c>
+      <c r="Q38">
+        <v>6</v>
+      </c>
+      <c r="R38">
+        <v>8</v>
+      </c>
+      <c r="S38">
+        <v>11</v>
+      </c>
+      <c r="T38">
+        <v>14</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>6</v>
+      </c>
+      <c r="W38">
+        <v>4</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Z38">
+        <v>10</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>81</v>
       </c>
@@ -4007,7 +5448,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" s="9">
         <v>165</v>
@@ -4035,14 +5476,51 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="O39">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39">
+        <v>7</v>
+      </c>
+      <c r="Q39">
+        <v>7</v>
+      </c>
+      <c r="R39">
+        <v>8</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>6</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>125</v>
       </c>
@@ -4056,7 +5534,7 @@
         <v>9</v>
       </c>
       <c r="E40" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="9">
         <v>190</v>
@@ -4084,14 +5562,51 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="O40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40">
+        <v>8</v>
+      </c>
+      <c r="Q40">
+        <v>8</v>
+      </c>
+      <c r="R40">
+        <v>5</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>6</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Z40">
+        <v>30</v>
+      </c>
+      <c r="AA40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>84</v>
       </c>
@@ -4133,17 +5648,54 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="O41">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41">
+        <v>8</v>
+      </c>
+      <c r="Q41">
+        <v>8</v>
+      </c>
+      <c r="R41">
+        <v>7</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>6</v>
+      </c>
+      <c r="V41">
+        <v>4</v>
+      </c>
+      <c r="W41">
+        <v>1.5</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="Z41">
+        <v>35</v>
+      </c>
+      <c r="AA41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C45" s="6"/>
     </row>
   </sheetData>
@@ -8787,7 +10339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E13319A-BD70-7B4F-AA76-0FFF42AE162D}">
   <dimension ref="A1:BC58"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="75" workbookViewId="0">
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
